--- a/Question_Set2/Role-specific skills/GHS  Safety.xlsx
+++ b/Question_Set2/Role-specific skills/GHS  Safety.xlsx
@@ -16,23 +16,67 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'The label of a chemical product you use at your factory contains the pictograms shown in the following image. The team member scheduled to work with this chemical has mild asthmatic symptoms.  Based on the product’s hazard pictograms, what is the minimum personal protective equipment (PPE) your team member should wear?', 'ques_type': 2, 'options': [' Full PPE', 'Respiratory protective equipment', 'Chemical-resistant gloves', 'Face shield', 'Respiratory protective equipment and chemical-resistant gloves', 'Face shield and chemical-resistant gloves', 'Respiratory protective equipment and face shield', 'Respiratory protective equipment, chemical-resistant gloves, and face shield'], 'score': 'Full PPE'}, {'title': 'As you review the health and safety measures needed while dealing with a chemical, you see the following diagram.  Which of the following statements is true about this chemical?', 'ques_type': 2, 'options': ['The product is not hazardous to health.', 'The product can cause significant irritation.', 'The product can cause temporary incapacitation.', 'The product can be lethal.'], 'score': 'The product can cause temporary incapacitation.'}, {'title': 'A liquid chemical’s SDS indicates the following:Chemical is colorless in appearance. LFL (lower flammable limit), UFL (upper flammable limit) and boiling point information is unavailable.  Which statements are true about the chemical?', 'ques_type': 15, 'options': ['The product is relatively safe.', 'The product will not catch fire.', 'The product information provided is not complete enough to identify the product.', 'The product should be tested to obtain the boiling point before it is used.', 'The supplier should be contacted for the unavailable information.', "The product should not be used without a chemist's supervision."], 'score': ['The product is relatively safe.', 'The product information provided is not complete enough to identify the product.']}, {'title': 'True or false: When the “Other Information” section of an SDS reads, ‘’Supplier does not give warranty of merchantability or fitness for a particular purpose,’’ the product needs a medical practitioner’s approval before you use it.', 'ques_type': 11, 'options': ['true', 'false'], 'score': 'True'}]</t>
+    <t>questions = [
+    {
+        "title": "The label of a chemical product you use at your factory contains the pictograms shown in the following image. The team member scheduled to work with this chemical has mild asthmatic symptoms.  Based on the product\u2019s hazard pictograms, what is the minimum personal protective equipment (PPE) your team member should wear?",
+        "ques_type": 2,
+        "options": [
+            " Full PPE",
+            "Respiratory protective equipment",
+            "Chemical-resistant gloves",
+            "Face shield",
+            "Respiratory protective equipment and chemical-resistant gloves",
+            "Face shield and chemical-resistant gloves",
+            "Respiratory protective equipment and face shield",
+            "Respiratory protective equipment, chemical-resistant gloves, and face shield"
+        ],
+        "score": "Full PPE"
+    },
+    {
+        "title": "As you review the health and safety measures needed while dealing with a chemical, you see the following diagram.  Which of the following statements is true about this chemical?",
+        "ques_type": 2,
+        "options": [
+            "The product is not hazardous to health.",
+            "The product can cause significant irritation.",
+            "The product can cause temporary incapacitation.",
+            "The product can be lethal."
+        ],
+        "score": "The product can cause temporary incapacitation."
+    },
+    {
+        "title": "A liquid chemical\u2019s SDS indicates the following:Chemical is colorless in appearance. LFL (lower flammable limit), UFL (upper flammable limit) and boiling point information is unavailable.  Which statements are true about the chemical?",
+        "ques_type": 15,
+        "options": [
+            "The product is relatively safe.",
+            "The product will not catch fire.",
+            "The product information provided is not complete enough to identify the product.",
+            "The product should be tested to obtain the boiling point before it is used.",
+            "The supplier should be contacted for the unavailable information.",
+            "The product should not be used without a chemist's supervision."
+        ],
+        "score": [
+            "The product is relatively safe.",
+            "The product information provided is not complete enough to identify the product."
+        ]
+    },
+    {
+        "title": "True or false: When the \u201cOther Information\u201d section of an SDS reads, \u2018\u2019Supplier does not give warranty of merchantability or fitness for a particular purpose,\u2019\u2019 the product needs a medical practitioner\u2019s approval before you use it.",
+        "ques_type": 11,
+        "options": [
+            "true",
+            "false"
+        ],
+        "score": "True"
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +92,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +100,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +400,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
